--- a/myapp/files/80_distances/distances_aggregate2_pValue_Chances.xlsx
+++ b/myapp/files/80_distances/distances_aggregate2_pValue_Chances.xlsx
@@ -407,7 +407,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>5.4208</v>
+        <v>0.2963</v>
       </c>
     </row>
     <row r="3">
@@ -421,7 +421,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>6.3774</v>
+        <v>0.4229</v>
       </c>
     </row>
     <row r="4">
@@ -435,7 +435,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>2.3009</v>
+        <v>0.1565</v>
       </c>
     </row>
     <row r="5">
@@ -449,7 +449,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>1.7521</v>
+        <v>0.1412</v>
       </c>
     </row>
     <row r="6">
@@ -463,7 +463,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>5.2747</v>
+        <v>0.2727</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +477,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>5.7964</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>4.6851</v>
+        <v>0.3311</v>
       </c>
     </row>
     <row r="9">
@@ -505,7 +505,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>4.3893</v>
+        <v>0.3121</v>
       </c>
     </row>
     <row r="10">
@@ -519,7 +519,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>5.1051</v>
+        <v>0.3636</v>
       </c>
     </row>
     <row r="11">
@@ -533,7 +533,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>4.5247</v>
+        <v>0.3548</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>2.1365</v>
+        <v>0.1515</v>
       </c>
     </row>
     <row r="13">
@@ -561,7 +561,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>3.5579</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="14">
@@ -575,7 +575,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>11.0369</v>
+        <v>0.4989</v>
       </c>
     </row>
     <row r="15">
@@ -589,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>10.6545</v>
+        <v>0.5887</v>
       </c>
     </row>
     <row r="16">
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>10.4764</v>
+        <v>0.5907</v>
       </c>
     </row>
     <row r="17">
@@ -617,7 +617,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>9.9173</v>
+        <v>0.4697</v>
       </c>
     </row>
     <row r="18">
@@ -631,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>11.1364</v>
+        <v>0.5152</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>10.6433</v>
+        <v>0.5846</v>
       </c>
     </row>
     <row r="20">
@@ -659,7 +659,7 @@
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>12.501</v>
+        <v>0.6061</v>
       </c>
     </row>
     <row r="21">
@@ -673,7 +673,7 @@
         <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>12.8759</v>
+        <v>0.6667</v>
       </c>
     </row>
     <row r="22">
@@ -687,7 +687,7 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>12.09</v>
+        <v>0.6691</v>
       </c>
     </row>
     <row r="23">
@@ -701,7 +701,7 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>11.3394</v>
+        <v>0.7073</v>
       </c>
     </row>
     <row r="24">
@@ -715,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>10.7</v>
+        <v>0.5698</v>
       </c>
     </row>
     <row r="25">
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>10.3954</v>
+        <v>0.5312</v>
       </c>
     </row>
     <row r="26">
@@ -743,7 +743,7 @@
         <v>11</v>
       </c>
       <c r="D26" t="n">
-        <v>3.4893</v>
+        <v>0.2031</v>
       </c>
     </row>
     <row r="27">
@@ -757,7 +757,7 @@
         <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>3.286</v>
+        <v>0.1894</v>
       </c>
     </row>
     <row r="28">
@@ -771,7 +771,7 @@
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>4.622</v>
+        <v>0.2752</v>
       </c>
     </row>
     <row r="29">
@@ -785,7 +785,7 @@
         <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>3.7925</v>
+        <v>0.2528</v>
       </c>
     </row>
     <row r="30">
@@ -799,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>1.6949</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="31">
@@ -813,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>1.4617</v>
+        <v>0.1227</v>
       </c>
     </row>
     <row r="32">
@@ -827,7 +827,7 @@
         <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>2.451</v>
+        <v>0.1789</v>
       </c>
     </row>
     <row r="33">
@@ -841,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="D33" t="n">
-        <v>3.6165</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="34">
@@ -855,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8813</v>
+        <v>0.0709</v>
       </c>
     </row>
     <row r="35">
@@ -869,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="n">
-        <v>0.494</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="36">
@@ -883,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>1.5523</v>
+        <v>0.1215</v>
       </c>
     </row>
     <row r="37">
@@ -897,7 +897,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>1.4437</v>
+        <v>0.1003</v>
       </c>
     </row>
     <row r="38">
@@ -911,7 +911,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>4.3871</v>
+        <v>0.3008</v>
       </c>
     </row>
     <row r="39">
@@ -925,7 +925,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>4.22</v>
+        <v>0.2985</v>
       </c>
     </row>
     <row r="40">
@@ -939,7 +939,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>4.9965</v>
+        <v>0.2262</v>
       </c>
     </row>
     <row r="41">
@@ -953,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="n">
-        <v>6.0423</v>
+        <v>0.3648</v>
       </c>
     </row>
     <row r="42">
@@ -967,7 +967,7 @@
         <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>3.9629</v>
+        <v>0.2734</v>
       </c>
     </row>
     <row r="43">
@@ -981,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>3.3237</v>
+        <v>0.1877</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/files/80_distances/distances_aggregate2_pValue_Chances.xlsx
+++ b/myapp/files/80_distances/distances_aggregate2_pValue_Chances.xlsx
@@ -407,7 +407,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2963</v>
+        <v>5.4208</v>
       </c>
     </row>
     <row r="3">
@@ -421,7 +421,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4229</v>
+        <v>6.3774</v>
       </c>
     </row>
     <row r="4">
@@ -435,7 +435,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1565</v>
+        <v>2.3009</v>
       </c>
     </row>
     <row r="5">
@@ -449,7 +449,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1412</v>
+        <v>1.7521</v>
       </c>
     </row>
     <row r="6">
@@ -463,7 +463,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2727</v>
+        <v>5.2747</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +477,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.303</v>
+        <v>5.7964</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3311</v>
+        <v>4.6851</v>
       </c>
     </row>
     <row r="9">
@@ -505,7 +505,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3121</v>
+        <v>4.3893</v>
       </c>
     </row>
     <row r="10">
@@ -519,7 +519,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3636</v>
+        <v>5.1051</v>
       </c>
     </row>
     <row r="11">
@@ -533,7 +533,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3548</v>
+        <v>4.5247</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1515</v>
+        <v>2.1365</v>
       </c>
     </row>
     <row r="13">
@@ -561,7 +561,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2023</v>
+        <v>3.5579</v>
       </c>
     </row>
     <row r="14">
@@ -575,7 +575,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4989</v>
+        <v>10.8238</v>
       </c>
     </row>
     <row r="15">
@@ -589,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5887</v>
+        <v>11.5479</v>
       </c>
     </row>
     <row r="16">
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5907</v>
+        <v>10.2644</v>
       </c>
     </row>
     <row r="17">
@@ -617,7 +617,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4697</v>
+        <v>11.0301</v>
       </c>
     </row>
     <row r="18">
@@ -631,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5152</v>
+        <v>11.1364</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5846</v>
+        <v>11.8739</v>
       </c>
     </row>
     <row r="20">
@@ -659,7 +659,7 @@
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6061</v>
+        <v>12.5008</v>
       </c>
     </row>
     <row r="21">
@@ -673,7 +673,7 @@
         <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6667</v>
+        <v>13.2442</v>
       </c>
     </row>
     <row r="22">
@@ -687,7 +687,7 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6691</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="23">
@@ -701,7 +701,7 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7073</v>
+        <v>12.8559</v>
       </c>
     </row>
     <row r="24">
@@ -715,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5698</v>
+        <v>10.4751</v>
       </c>
     </row>
     <row r="25">
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5312</v>
+        <v>11.2246</v>
       </c>
     </row>
     <row r="26">
@@ -743,7 +743,7 @@
         <v>11</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2031</v>
+        <v>3.4893</v>
       </c>
     </row>
     <row r="27">
@@ -757,7 +757,7 @@
         <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1894</v>
+        <v>3.286</v>
       </c>
     </row>
     <row r="28">
@@ -771,7 +771,7 @@
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2752</v>
+        <v>4.622</v>
       </c>
     </row>
     <row r="29">
@@ -785,7 +785,7 @@
         <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2528</v>
+        <v>3.7925</v>
       </c>
     </row>
     <row r="30">
@@ -799,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>0.154</v>
+        <v>1.6949</v>
       </c>
     </row>
     <row r="31">
@@ -813,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1227</v>
+        <v>1.4617</v>
       </c>
     </row>
     <row r="32">
@@ -827,7 +827,7 @@
         <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1789</v>
+        <v>2.451</v>
       </c>
     </row>
     <row r="33">
@@ -841,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="D33" t="n">
-        <v>0.255</v>
+        <v>3.6165</v>
       </c>
     </row>
     <row r="34">
@@ -855,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0709</v>
+        <v>0.8823</v>
       </c>
     </row>
     <row r="35">
@@ -869,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="n">
-        <v>0.061</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="36">
@@ -883,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1215</v>
+        <v>1.552</v>
       </c>
     </row>
     <row r="37">
@@ -897,7 +897,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1003</v>
+        <v>1.4437</v>
       </c>
     </row>
     <row r="38">
@@ -911,7 +911,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3008</v>
+        <v>4.3882</v>
       </c>
     </row>
     <row r="39">
@@ -925,7 +925,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2985</v>
+        <v>4.2186</v>
       </c>
     </row>
     <row r="40">
@@ -939,7 +939,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2262</v>
+        <v>4.9961</v>
       </c>
     </row>
     <row r="41">
@@ -953,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3648</v>
+        <v>6.0405</v>
       </c>
     </row>
     <row r="42">
@@ -967,7 +967,7 @@
         <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2734</v>
+        <v>3.9628</v>
       </c>
     </row>
     <row r="43">
@@ -981,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1877</v>
+        <v>3.3251</v>
       </c>
     </row>
   </sheetData>
